--- a/Documentation/IPPE - Écrans des réponses.xlsx
+++ b/Documentation/IPPE - Écrans des réponses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlevasseur\Documents\Cegep\Cours\4D1\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDC5917-CD49-405D-AE80-FF4DB81260E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07752552-4D1F-4AFE-A8EE-DB6C79DCE4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accès" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="164">
   <si>
     <t>IPPE</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>108-200207-0022</t>
+  </si>
+  <si>
+    <t>123-220115-0015</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087A652A-C2A4-4029-9D4C-5D07D1E85342}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1774,7 +1779,7 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -4556,7 +4561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
